--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -23,7 +23,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,6 +32,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -39,15 +47,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,23 +130,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,53 +148,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,32 +169,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,49 +185,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,133 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,9 +381,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,21 +429,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -473,13 +453,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,148 +481,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,10 +985,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.66666666666667"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>1111111</v>
+        <v>11111111</v>
       </c>
     </row>
   </sheetData>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -32,9 +32,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -47,9 +69,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -64,29 +101,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,70 +109,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,8 +123,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,37 +185,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,145 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,6 +376,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -390,11 +414,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,17 +444,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,39 +476,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,20 +978,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9.66666666666667"/>
+    <col min="1" max="1" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
         <v>11111111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>22222222222</v>
       </c>
     </row>
   </sheetData>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="8567"/>
+    <workbookView windowWidth="21431" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -39,7 +39,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -69,24 +75,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,6 +114,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -109,37 +154,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,30 +170,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,13 +185,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,169 +299,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,6 +376,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -394,11 +436,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,54 +476,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,7 +980,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1011,12 +1011,21 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.6666666666667"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>111111111</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="8567"/>
+    <workbookView windowWidth="21216" windowHeight="8567" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -980,8 +980,8 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1011,12 +1011,21 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.7777777777778"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1111111111</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -39,9 +39,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -63,30 +62,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,6 +123,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -138,21 +160,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -164,13 +171,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,6 +376,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -396,15 +405,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -414,16 +414,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -453,6 +453,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -461,21 +476,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,13 +1009,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="11.7777777777778"/>
   </cols>
@@ -1023,6 +1023,11 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <v>1111111111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2222222</v>
       </c>
     </row>
   </sheetData>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21431" windowHeight="9132" activeTab="1"/>
+    <workbookView windowWidth="21216" windowHeight="8567" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -33,6 +33,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -40,14 +47,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,7 +69,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,6 +88,44 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,16 +137,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,68 +175,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,26 +382,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,21 +419,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -447,17 +429,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +447,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,20 +1009,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="10.6666666666667"/>
+    <col min="1" max="1" width="11.7777777777778"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
         <v>111111111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>3333333333</v>
       </c>
     </row>
   </sheetData>
